--- a/src/main/resources/config/上线站点信息.xlsx
+++ b/src/main/resources/config/上线站点信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="197">
   <si>
     <t>站点编号</t>
   </si>
@@ -489,15 +489,6 @@
     <t>y3!qz0Dc</t>
   </si>
   <si>
-    <t>AH3003</t>
-  </si>
-  <si>
-    <t>龙游山后站</t>
-  </si>
-  <si>
-    <t>10.168.80.1</t>
-  </si>
-  <si>
     <t>AF3002</t>
   </si>
   <si>
@@ -577,6 +568,33 @@
   </si>
   <si>
     <t>10.168.126.1</t>
+  </si>
+  <si>
+    <t>AK8002</t>
+  </si>
+  <si>
+    <t>云和县崇头站</t>
+  </si>
+  <si>
+    <t>10.168.116.129</t>
+  </si>
+  <si>
+    <t>AH1002</t>
+  </si>
+  <si>
+    <t>衢州柯城上洋站</t>
+  </si>
+  <si>
+    <t>10.168.67.1</t>
+  </si>
+  <si>
+    <t>AE4001</t>
+  </si>
+  <si>
+    <t>湖州南浔嘉业站</t>
+  </si>
+  <si>
+    <t>10.168.72.1</t>
   </si>
   <si>
     <t>3308A01</t>
@@ -596,12 +614,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,16 +636,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,7 +659,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,13 +675,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,11 +695,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -689,6 +708,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,23 +742,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,23 +766,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,187 +787,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,6 +978,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -985,17 +1011,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,15 +1025,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,26 +1044,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1067,153 +1058,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1583,10 +1594,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="$A40:$XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2581,24 +2592,64 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A50" s="2" t="s">
+    <row r="50" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A50" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="D50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A51" s="1" t="s">
         <v>190</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="24" customHeight="1" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/config/上线站点信息.xlsx
+++ b/src/main/resources/config/上线站点信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="215">
   <si>
     <t>站点编号</t>
   </si>
@@ -291,15 +291,6 @@
     <t>qcNaFQ1b2</t>
   </si>
   <si>
-    <t>AH3003</t>
-  </si>
-  <si>
-    <t>龙游山后站</t>
-  </si>
-  <si>
-    <t>10.168.80.1</t>
-  </si>
-  <si>
     <t>AH3002</t>
   </si>
   <si>
@@ -604,6 +595,60 @@
   </si>
   <si>
     <t>10.168.72.1</t>
+  </si>
+  <si>
+    <t>AH4002</t>
+  </si>
+  <si>
+    <t>衢州衢江黄坛口站</t>
+  </si>
+  <si>
+    <t>10.168.100.129</t>
+  </si>
+  <si>
+    <t>AK9001</t>
+  </si>
+  <si>
+    <t>丽水市城南站</t>
+  </si>
+  <si>
+    <t>10.168.122.129</t>
+  </si>
+  <si>
+    <t>AJ6001</t>
+  </si>
+  <si>
+    <t>台州黄岩三江口站</t>
+  </si>
+  <si>
+    <t>10.168.89.1</t>
+  </si>
+  <si>
+    <t>AK9002</t>
+  </si>
+  <si>
+    <t>丽水市外舍站</t>
+  </si>
+  <si>
+    <t>10.168.117.1</t>
+  </si>
+  <si>
+    <t>AF4002</t>
+  </si>
+  <si>
+    <t>嘉兴南湖槜李站</t>
+  </si>
+  <si>
+    <t>10.168.83.1</t>
+  </si>
+  <si>
+    <t>AEE002</t>
+  </si>
+  <si>
+    <t>湖州德清新市城西站</t>
+  </si>
+  <si>
+    <t>10.168.76.129</t>
   </si>
   <si>
     <t>3308A01</t>
@@ -637,6 +682,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -645,16 +698,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,7 +737,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,26 +758,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -727,25 +797,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,21 +820,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -796,187 +841,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,6 +1032,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1020,24 +1083,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1049,6 +1094,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,26 +1132,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1095,10 +1140,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1107,137 +1152,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1249,6 +1294,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1603,10 +1651,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A58" sqref="$A58:$XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2077,19 +2125,19 @@
       <c r="E23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="3">
-        <v>123456</v>
+      <c r="F23" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
@@ -2098,18 +2146,18 @@
         <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
@@ -2118,18 +2166,18 @@
         <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
@@ -2138,18 +2186,18 @@
         <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
@@ -2157,8 +2205,8 @@
       <c r="E27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>109</v>
+      <c r="F27" s="3">
+        <v>123456</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
@@ -2177,19 +2225,19 @@
       <c r="E28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="3">
-        <v>123456</v>
+      <c r="F28" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
@@ -2198,18 +2246,18 @@
         <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
@@ -2217,8 +2265,8 @@
       <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>120</v>
+      <c r="F30" s="3">
+        <v>123456</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
@@ -2237,19 +2285,19 @@
       <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="3">
-        <v>123456</v>
+      <c r="F31" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
@@ -2258,18 +2306,18 @@
         <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
@@ -2278,18 +2326,18 @@
         <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
@@ -2298,18 +2346,18 @@
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
@@ -2318,18 +2366,18 @@
         <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
@@ -2338,18 +2386,18 @@
         <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
@@ -2358,18 +2406,18 @@
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
@@ -2378,18 +2426,18 @@
         <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
@@ -2398,18 +2446,18 @@
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>9</v>
@@ -2417,8 +2465,8 @@
       <c r="E40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>159</v>
+      <c r="F40" s="3">
+        <v>123456</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
@@ -2642,13 +2690,13 @@
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>195</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -2657,28 +2705,116 @@
       <c r="E52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="3">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A53" s="2" t="s">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A53" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="D53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A54" s="4" t="s">
         <v>199</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A55" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A56" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="24" customHeight="1" spans="1:6">
+      <c r="A58" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/config/上线站点信息.xlsx
+++ b/src/main/resources/config/上线站点信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="217">
   <si>
     <t>站点编号</t>
   </si>
@@ -649,6 +649,12 @@
   </si>
   <si>
     <t>10.168.76.129</t>
+  </si>
+  <si>
+    <t>德清玉屏路站</t>
+  </si>
+  <si>
+    <t>10.168.77.129</t>
   </si>
   <si>
     <t>3308A01</t>
@@ -677,6 +683,36 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -698,19 +734,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -721,46 +755,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,35 +779,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -820,7 +811,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,187 +847,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,15 +1038,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1069,21 +1066,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1100,20 +1082,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,6 +1118,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1140,10 +1146,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,133 +1158,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1651,10 +1657,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A58" sqref="$A58:$XFD58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2797,24 +2803,39 @@
       </c>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" s="2" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A58" s="2" t="s">
+    <row r="58" s="1" customFormat="1" ht="26" customHeight="1" spans="2:6">
+      <c r="B58" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="24" customHeight="1" spans="1:6">
+      <c r="A59" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>214</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/config/上线站点信息.xlsx
+++ b/src/main/resources/config/上线站点信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="254">
   <si>
     <t>站点编号</t>
   </si>
@@ -36,6 +36,9 @@
     <t>工控机密码</t>
   </si>
   <si>
+    <t>能否正常连接</t>
+  </si>
+  <si>
     <t>AJE001</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
     <t>odcYkkRIh4vV</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>AEE001</t>
   </si>
   <si>
@@ -489,6 +495,15 @@
     <t>y3!qz0Dc</t>
   </si>
   <si>
+    <t>AH3003</t>
+  </si>
+  <si>
+    <t>龙游山后站</t>
+  </si>
+  <si>
+    <t>10.168.80.1</t>
+  </si>
+  <si>
     <t>AF3002</t>
   </si>
   <si>
@@ -597,6 +612,33 @@
     <t>10.168.72.1</t>
   </si>
   <si>
+    <t>AK9001</t>
+  </si>
+  <si>
+    <t>丽水市城南站</t>
+  </si>
+  <si>
+    <t>10.168.122.129</t>
+  </si>
+  <si>
+    <t>AK9002</t>
+  </si>
+  <si>
+    <t>丽水市外舍站</t>
+  </si>
+  <si>
+    <t>10.168.117.1</t>
+  </si>
+  <si>
+    <t>AJ6001</t>
+  </si>
+  <si>
+    <t>台州黄岩三江口站</t>
+  </si>
+  <si>
+    <t>10.168.89.1</t>
+  </si>
+  <si>
     <t>AH4002</t>
   </si>
   <si>
@@ -606,33 +648,6 @@
     <t>10.168.100.129</t>
   </si>
   <si>
-    <t>AK9001</t>
-  </si>
-  <si>
-    <t>丽水市城南站</t>
-  </si>
-  <si>
-    <t>10.168.122.129</t>
-  </si>
-  <si>
-    <t>AJ6001</t>
-  </si>
-  <si>
-    <t>台州黄岩三江口站</t>
-  </si>
-  <si>
-    <t>10.168.89.1</t>
-  </si>
-  <si>
-    <t>AK9002</t>
-  </si>
-  <si>
-    <t>丽水市外舍站</t>
-  </si>
-  <si>
-    <t>10.168.117.1</t>
-  </si>
-  <si>
     <t>AF4002</t>
   </si>
   <si>
@@ -651,10 +666,106 @@
     <t>10.168.76.129</t>
   </si>
   <si>
+    <t>AH4001</t>
+  </si>
+  <si>
+    <t>衢州衢江京台站</t>
+  </si>
+  <si>
+    <t>10.168.100.1</t>
+  </si>
+  <si>
+    <t>AK1003</t>
+  </si>
+  <si>
+    <t>丽水市大港头站</t>
+  </si>
+  <si>
+    <t>10.168.118.1</t>
+  </si>
+  <si>
+    <t>AC2001</t>
+  </si>
+  <si>
+    <t>温州市轻工园区站</t>
+  </si>
+  <si>
+    <t>10.168.81.1</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>AEE003</t>
+  </si>
+  <si>
     <t>德清玉屏路站</t>
   </si>
   <si>
     <t>10.168.77.129</t>
+  </si>
+  <si>
+    <t>AH5001</t>
+  </si>
+  <si>
+    <t>衢州常山龙绕站</t>
+  </si>
+  <si>
+    <t>10.168.101.129</t>
+  </si>
+  <si>
+    <t>AH5002</t>
+  </si>
+  <si>
+    <t>衢州常山同弓站</t>
+  </si>
+  <si>
+    <t>10.168.103.129</t>
+  </si>
+  <si>
+    <t>AC4001</t>
+  </si>
+  <si>
+    <t>温州龙湾天城北园站</t>
+  </si>
+  <si>
+    <t>10.168.94.129</t>
+  </si>
+  <si>
+    <t>AK8001</t>
+  </si>
+  <si>
+    <t>丽水云和复兴站</t>
+  </si>
+  <si>
+    <t>10.168.126.129</t>
+  </si>
+  <si>
+    <t>AH1001</t>
+  </si>
+  <si>
+    <t>衢州柯城通成站</t>
+  </si>
+  <si>
+    <t>10.168.64.1</t>
+  </si>
+  <si>
+    <t>AH5005</t>
+  </si>
+  <si>
+    <t>衢州常山新桥站</t>
+  </si>
+  <si>
+    <t>10.168.102.1</t>
+  </si>
+  <si>
+    <t>AK6003</t>
+  </si>
+  <si>
+    <t>丽水松阳火车站站</t>
+  </si>
+  <si>
+    <t>10.168.115.129</t>
   </si>
   <si>
     <t>3308A01</t>
@@ -674,10 +785,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -695,42 +806,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -742,37 +822,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,19 +843,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,10 +874,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -831,13 +911,50 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -847,7 +964,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,19 +1084,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,31 +1120,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,115 +1144,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,15 +1161,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1061,6 +1175,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,11 +1212,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,26 +1242,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,10 +1269,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1158,151 +1281,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1657,13 +1795,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
@@ -1675,7 +1815,7 @@
     <col min="8" max="16384" width="14.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:6">
+    <row r="1" ht="21" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1694,1148 +1834,1558 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="26" customHeight="1" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="26" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3">
+        <v>11</v>
+      </c>
+      <c r="F16" s="5">
         <v>123456</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3">
+        <v>11</v>
+      </c>
+      <c r="F27" s="5">
         <v>123456</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="3">
+        <v>11</v>
+      </c>
+      <c r="F30" s="5">
         <v>123456</v>
       </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="3">
+        <v>11</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="5">
         <v>123456</v>
       </c>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="5">
         <v>123456</v>
       </c>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="5">
         <v>123456</v>
       </c>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="5">
         <v>123456</v>
       </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A44" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="5">
         <v>123456</v>
       </c>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A45" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="5">
         <v>123456</v>
       </c>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A46" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="5">
         <v>123456</v>
       </c>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A47" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="5">
         <v>123456</v>
       </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A48" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="5">
         <v>123456</v>
       </c>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A49" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="G49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="5">
         <v>123456</v>
       </c>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A50" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="G50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="5">
         <v>123456</v>
       </c>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A51" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="G51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="5">
         <v>123456</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A52" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A53" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A53" s="7" t="s">
         <v>198</v>
       </c>
+      <c r="B53" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="D53" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A54" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A54" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="B54" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="D54" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A55" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A55" s="7" t="s">
         <v>204</v>
       </c>
+      <c r="B55" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="D55" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A56" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A56" s="7" t="s">
         <v>207</v>
       </c>
+      <c r="B56" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="D56" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
-      <c r="A57" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A57" s="7" t="s">
         <v>210</v>
       </c>
+      <c r="B57" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="D57" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="26" customHeight="1" spans="2:6">
+        <v>11</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="B58" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" s="2" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A59" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A59" s="1" t="s">
         <v>216</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A61" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" ht="35" customHeight="1" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" s="4" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A70" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/config/上线站点信息.xlsx
+++ b/src/main/resources/config/上线站点信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="256">
   <si>
     <t>站点编号</t>
   </si>
@@ -39,6 +39,9 @@
     <t>能否正常连接</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>AJE001</t>
   </si>
   <si>
@@ -261,6 +264,12 @@
     <t>q8GL01#PLl</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>mysql主从同步问题</t>
+  </si>
+  <si>
     <t>AF1003</t>
   </si>
   <si>
@@ -691,9 +700,6 @@
   </si>
   <si>
     <t>10.168.81.1</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>AEE003</t>
@@ -1433,11 +1439,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1795,15 +1801,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
@@ -1812,10 +1818,11 @@
     <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.25" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="14.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:7">
+    <row r="1" ht="21" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1837,1555 +1844,1561 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="5">
         <v>123456</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="26" customHeight="1" spans="1:8">
+      <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>13</v>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" s="5">
         <v>123456</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" s="5">
         <v>123456</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" s="5">
         <v>123456</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" s="5">
         <v>123456</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" s="5">
         <v>123456</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" s="5">
         <v>123456</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" s="5">
         <v>123456</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" s="5">
         <v>123456</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" s="5">
         <v>123456</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" s="5">
         <v>123456</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" s="5">
         <v>123456</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" s="5">
         <v>123456</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" s="5">
         <v>123456</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" s="5">
         <v>123456</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A53" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>199</v>
+      <c r="A53" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A54" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>202</v>
+      <c r="A54" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A55" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>205</v>
+      <c r="A55" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A56" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>208</v>
+      <c r="A56" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A57" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>211</v>
+      <c r="A57" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="F61" s="7"/>
       <c r="G61" s="9" t="s">
-        <v>225</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="35" customHeight="1" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" s="4" customFormat="1" ht="24" customHeight="1" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>225</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
